--- a/附件_2_MeterSphere_case_Halo.xlsx
+++ b/附件_2_MeterSphere_case_Halo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12210"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
@@ -1111,8 +1111,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1130,9 +1130,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1143,15 +1143,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,11 +1166,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1188,15 +1197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1212,47 +1214,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1267,6 +1230,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1274,7 +1251,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1295,13 +1295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,7 +1319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,7 +1331,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,37 +1361,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,7 +1397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,37 +1415,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,13 +1451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,19 +1469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,17 +1504,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,31 +1541,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1584,15 +1563,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1601,151 +1571,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1760,54 +1760,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2078,20 +2078,20 @@
   <sheetPr/>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="34.5666666666667" customWidth="1"/>
-    <col min="2" max="2" width="35.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="34.5625" customWidth="1"/>
+    <col min="2" max="2" width="35.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="54" style="1" customWidth="1"/>
     <col min="6" max="6" width="134" style="1" customWidth="1"/>
-    <col min="7" max="7" width="133.425" style="1" customWidth="1"/>
+    <col min="7" max="7" width="133.428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" spans="1:11">
+    <row r="1" ht="41" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" ht="17" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:11">
+    <row r="3" ht="34" spans="1:11">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" ht="17" spans="1:11">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="1:11">
+    <row r="5" ht="34" spans="1:11">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="42" spans="1:11">
+    <row r="6" ht="51" spans="1:11">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="42" spans="1:11">
+    <row r="7" ht="51" spans="1:11">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="42" spans="1:11">
+    <row r="8" ht="51" spans="1:11">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="42" spans="1:11">
+    <row r="9" ht="51" spans="1:11">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="42" spans="1:11">
+    <row r="10" ht="51" spans="1:11">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" ht="17" spans="1:11">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" ht="17" spans="1:11">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" ht="17" spans="1:11">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" ht="17" spans="1:11">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="28" spans="1:11">
+    <row r="15" ht="34" spans="1:11">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="56" spans="1:11">
+    <row r="16" ht="68" spans="1:11">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="28" spans="1:11">
+    <row r="17" ht="34" spans="1:11">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" ht="17" spans="1:11">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" ht="17" spans="1:11">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" ht="17" spans="1:11">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" ht="17" spans="1:11">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="56" spans="1:11">
+    <row r="22" ht="68" spans="1:11">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" ht="56" spans="1:11">
+    <row r="23" ht="68" spans="1:11">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" ht="42" spans="1:11">
+    <row r="24" ht="51" spans="1:11">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="70" spans="1:11">
+    <row r="25" ht="84" spans="1:11">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="56" spans="1:11">
+    <row r="26" ht="68" spans="1:11">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="56" spans="1:11">
+    <row r="27" ht="68" spans="1:11">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="28" spans="1:11">
+    <row r="28" ht="34" spans="1:11">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" ht="56" spans="1:11">
+    <row r="29" ht="68" spans="1:11">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="56" spans="1:11">
+    <row r="30" ht="68" spans="1:11">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" ht="56" spans="1:11">
+    <row r="31" ht="68" spans="1:11">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" ht="42" spans="1:11">
+    <row r="32" ht="51" spans="1:11">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" ht="70" spans="1:11">
+    <row r="33" ht="84" spans="1:11">
       <c r="A33" t="s">
         <v>129</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" ht="42" spans="1:11">
+    <row r="34" ht="51" spans="1:11">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" ht="42" spans="1:11">
+    <row r="35" ht="51" spans="1:11">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" ht="42" spans="1:11">
+    <row r="36" ht="51" spans="1:11">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" ht="56" spans="1:11">
+    <row r="37" ht="68" spans="1:11">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" ht="56" spans="1:11">
+    <row r="38" ht="68" spans="1:11">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" ht="56" spans="1:11">
+    <row r="39" ht="68" spans="1:11">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" ht="42" spans="1:11">
+    <row r="40" ht="51" spans="1:11">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" ht="56" spans="1:11">
+    <row r="41" ht="68" spans="1:11">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" ht="42" spans="1:11">
+    <row r="42" ht="51" spans="1:11">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" ht="42" spans="1:11">
+    <row r="43" ht="51" spans="1:11">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" ht="42" spans="1:11">
+    <row r="44" ht="51" spans="1:11">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" ht="42" spans="1:11">
+    <row r="45" ht="51" spans="1:11">
       <c r="A45" t="s">
         <v>174</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" ht="56" spans="1:11">
+    <row r="46" ht="68" spans="1:11">
       <c r="A46" t="s">
         <v>177</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" ht="42" spans="1:11">
+    <row r="47" ht="51" spans="1:11">
       <c r="A47" t="s">
         <v>181</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" ht="56" spans="1:11">
+    <row r="48" ht="68" spans="1:11">
       <c r="A48" t="s">
         <v>186</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" ht="42" spans="1:11">
+    <row r="49" ht="51" spans="1:11">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" ht="70" spans="1:11">
+    <row r="50" ht="84" spans="1:11">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" ht="70" spans="1:11">
+    <row r="51" ht="84" spans="1:11">
       <c r="A51" t="s">
         <v>199</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" ht="42" spans="1:11">
+    <row r="52" ht="51" spans="1:11">
       <c r="A52" t="s">
         <v>203</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" ht="42" spans="1:11">
+    <row r="53" ht="51" spans="1:11">
       <c r="A53" t="s">
         <v>207</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" ht="42" spans="1:11">
+    <row r="54" ht="51" spans="1:11">
       <c r="A54" t="s">
         <v>211</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" ht="42" spans="1:11">
+    <row r="55" ht="51" spans="1:11">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" ht="42" spans="1:11">
+    <row r="56" ht="51" spans="1:11">
       <c r="A56" t="s">
         <v>217</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" ht="56" spans="1:11">
+    <row r="57" ht="68" spans="1:11">
       <c r="A57" t="s">
         <v>221</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" ht="28" spans="1:11">
+    <row r="58" ht="34" spans="1:11">
       <c r="A58" t="s">
         <v>225</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" ht="42" spans="1:11">
+    <row r="59" ht="51" spans="1:11">
       <c r="A59" t="s">
         <v>228</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" ht="42" spans="1:11">
+    <row r="60" ht="51" spans="1:11">
       <c r="A60" t="s">
         <v>231</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" ht="56" spans="1:11">
+    <row r="61" ht="68" spans="1:11">
       <c r="A61" t="s">
         <v>234</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" ht="56" spans="1:11">
+    <row r="62" ht="68" spans="1:11">
       <c r="A62" t="s">
         <v>238</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" ht="56" spans="1:11">
+    <row r="63" ht="68" spans="1:11">
       <c r="A63" t="s">
         <v>241</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" ht="56" spans="1:11">
+    <row r="64" ht="68" spans="1:11">
       <c r="A64" t="s">
         <v>245</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" ht="56" spans="1:11">
+    <row r="65" ht="68" spans="1:11">
       <c r="A65" t="s">
         <v>249</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" ht="17" spans="1:11">
       <c r="A66" t="s">
         <v>253</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" ht="56" spans="1:11">
+    <row r="67" ht="68" spans="1:11">
       <c r="A67" t="s">
         <v>254</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" ht="56" spans="1:11">
+    <row r="68" ht="68" spans="1:11">
       <c r="A68" t="s">
         <v>257</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" ht="56" spans="1:11">
+    <row r="69" ht="68" spans="1:11">
       <c r="A69" t="s">
         <v>261</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" ht="17" spans="1:11">
       <c r="A70" t="s">
         <v>265</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" ht="28" spans="1:11">
+    <row r="71" ht="34" spans="1:11">
       <c r="A71" t="s">
         <v>266</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" ht="42" spans="1:11">
+    <row r="72" ht="51" spans="1:11">
       <c r="A72" t="s">
         <v>270</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" ht="28" spans="1:11">
+    <row r="73" ht="34" spans="1:11">
       <c r="A73" t="s">
         <v>273</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" ht="168" spans="1:11">
+    <row r="74" ht="202" spans="1:11">
       <c r="A74" t="s">
         <v>276</v>
       </c>
